--- a/individual_case_outputs/avey/489.xlsx
+++ b/individual_case_outputs/avey/489.xlsx
@@ -769,7 +769,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>overflow urinary incontinence</t>
+          <t>mixed urinary incontinence</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
